--- a/IOS-SwiftCheatSheet.xlsx
+++ b/IOS-SwiftCheatSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89873F9A-8502-4336-A58E-FA2F3871C4AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5728693-B8E5-4F32-B610-01B186459FF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{98A01049-BF3B-4C20-8093-7A9FAB62D532}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1944" windowWidth="12960" windowHeight="9072" xr2:uid="{98A01049-BF3B-4C20-8093-7A9FAB62D532}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,12 +687,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{2D10C76F-E9EA-4B1D-B4C2-46B41ABAB62A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+func greet(person: String, alreadyGreeted: Bool) -&gt; String {
+    if alreadyGreeted {
+        return greetAgain(person: person)
+    } else {
+        return greet(person: person)
+    }
+}
+print(greet(person: "Tim", alreadyGreeted: true))
+//Multiple return values
+func minMax(array: [Int]) -&gt; (min: Int, max: Int) {
+    var currentMin = array[0]
+    var currentMax = array[0]
+    for value in array[1..&lt;array.count] {
+        if value &lt; currentMin {
+            currentMin = value
+        } else if value &gt; currentMax {
+            currentMax = value
+        }
+    }
+    return (currentMin, currentMax)
+}
+print("min is \(bounds.min) and max is \(bounds.max)")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Declaring variable / constants</t>
   </si>
@@ -713,6 +748,12 @@
   </si>
   <si>
     <t>For-In / For In</t>
+  </si>
+  <si>
+    <t>Basic function / method</t>
+  </si>
+  <si>
+    <t>Variadic Parameters</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C17284-364A-4FF2-9D39-500810DB7690}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,8 +1171,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IOS-SwiftCheatSheet.xlsx
+++ b/IOS-SwiftCheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5728693-B8E5-4F32-B610-01B186459FF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C517C42-2724-41A2-9045-4B2DCA821F42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1944" windowWidth="12960" windowHeight="9072" xr2:uid="{98A01049-BF3B-4C20-8093-7A9FAB62D532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{98A01049-BF3B-4C20-8093-7A9FAB62D532}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,12 +722,76 @@
         </r>
       </text>
     </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{AD7EAF0A-1161-4C71-B7D0-85EB3DE51164}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+//Random number between 0 and 9
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>let rand = arc4random_uniform(10)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+//Random number between 1 and 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>let rand = arc4random_uniform(10) + 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{E841D742-D9B9-4537-BA9F-945B3CED0C86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    let formatter = NumberFormatter()
+    formatter.locale = Locale(identifier: locale)
+    formatter.numberStyle = .currency 
+    let formatedNumber = formatter.string(from: smallestAmount as NSNumber )
+    return formatedNumber!</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Declaring variable / constants</t>
   </si>
@@ -755,12 +819,18 @@
   <si>
     <t>Variadic Parameters</t>
   </si>
+  <si>
+    <t>Random int / number</t>
+  </si>
+  <si>
+    <t>Currency Format</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +857,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1125,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C17284-364A-4FF2-9D39-500810DB7690}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,6 +1257,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
